--- a/data/interevening_phonemes.xlsx
+++ b/data/interevening_phonemes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\PhD\phonology\midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\PhD\phonology\phon_1_quechua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0CDD2F-4165-4DC7-92EE-BC093BC76535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A165E4-793C-4450-B6A6-01C6AA998BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0299CBAF-BCCE-447F-82F1-48B0AA270658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0299CBAF-BCCE-447F-82F1-48B0AA270658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>enqhay</t>
   </si>
@@ -102,6 +102,108 @@
   </si>
   <si>
     <t>Intervening phoneme</t>
+  </si>
+  <si>
+    <t>orqokuna</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>sonqon</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>tonqoriy</t>
+  </si>
+  <si>
+    <t>throat, neck</t>
+  </si>
+  <si>
+    <t>sonqoyoh</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>kneel</t>
+  </si>
+  <si>
+    <t>qonqoriy</t>
+  </si>
+  <si>
+    <t>orqo</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>orq'oy</t>
+  </si>
+  <si>
+    <t>remove, take away</t>
+  </si>
+  <si>
+    <t>q'orqoy</t>
+  </si>
+  <si>
+    <t>snore</t>
+  </si>
+  <si>
+    <t>onqosqa</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>akatenqa</t>
+  </si>
+  <si>
+    <t>black-beetle</t>
+  </si>
+  <si>
+    <t>senqa</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>p'enqachiy</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>chaki senqa</t>
+  </si>
+  <si>
+    <t>shin (bone)</t>
+  </si>
+  <si>
+    <t>lerq'o</t>
+  </si>
+  <si>
+    <t>one-eyed</t>
+  </si>
+  <si>
+    <t>perqa</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>qolqe</t>
+  </si>
+  <si>
+    <t>silver, money</t>
+  </si>
+  <si>
+    <t>tolqa</t>
+  </si>
+  <si>
+    <t>son-in-law</t>
   </si>
 </sst>
 </file>
@@ -133,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -151,8 +253,103 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -160,12 +357,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -174,31 +371,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -206,91 +403,73 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,114 +804,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91AA8A0-E7AC-4B7D-9FEC-1F231AC001D7}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="14" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="2" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E23" s="24" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B25"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
